--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,32 +8,211 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nidhirastogi/Documents/GitHub/RIT-DSCI-633-FDS/Syllabus/ProjectFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B093605-0873-A346-94D5-89C27AF6425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{914482F3-EA4E-B045-8DE1-AA3BFAE8BD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{C1FC007B-3CEA-7C4A-BCCF-73AE27EDFC10}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teams" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>Member Information (Name, RIT email)</t>
+  </si>
+  <si>
+    <t>Role for each member in the team (1 line description for each member)</t>
+  </si>
+  <si>
+    <t>Share Dataset Link (if provided by instructor, mention that)</t>
+  </si>
+  <si>
+    <t>bk5953@g.rit.edu</t>
+  </si>
+  <si>
+    <t>DDOS Detection using Machine Learning</t>
+  </si>
+  <si>
+    <t>Shaista Syeda - ss7810@rit.edu, Akshat Garg - ag2193@rit.edu, Bharadwaj Sharma Kasturi - bk5953@rit.edu, Megha Gupta- mg9428@rit.edu</t>
+  </si>
+  <si>
+    <t>Extraction of Data and preprocessing, Exploratory Data Analysis and Data Visualisation, Building Machine Learning Models, Enhancing Model performance( Hyper parameter tuning) and calculating cost/ error</t>
+  </si>
+  <si>
+    <t>http://kdd.ics.uci.edu/databases/kddcup99/kddcup99.html</t>
+  </si>
+  <si>
+    <t>ln8378@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Congressional votes clustering</t>
+  </si>
+  <si>
+    <t>Clustering together congresspeople to measure partisanship between each party by looking at the votes on each bill passed this year.</t>
+  </si>
+  <si>
+    <t>Le (ln8378@g.rit.edu)
+Greeshma (gg1849@g.rit.edu)
+Tolu (tao5634@g.rit.edu)
+Nandini (nl7222@rit.edu)</t>
+  </si>
+  <si>
+    <t>Le: Data scraping and cleaning plus helping with the final model
+Greeshma: Exploratory data analysis
+Tolu: Exploratory data analysis and final model
+Nandini: feature engineering</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nguye639/DSCI_Project/master/cleanData.csv</t>
+  </si>
+  <si>
+    <t>pn1922@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Hotstar Segment Classification</t>
+  </si>
+  <si>
+    <t>Pranav Nair - pn1922@g.rit.edu
+Omkar Khanvilkar - osk8557@g.rit.edu
+Sujan Dutta - sd2516@g.rit.edu
+Varun Tandon - vt9438@g.rit.edu</t>
+  </si>
+  <si>
+    <t>We plan to divide every task like data cleaning, EDA, feature engineering, model training and testing equally among the four of us.
+Since the training data contains 200,000 rows, one person handling a single task in one computer can be challenging in terms of computation. Hence, we plan to split every task equally amongst us</t>
+  </si>
+  <si>
+    <t>https://he-s3.s3.amazonaws.com/media/hackathon/machine-learning-indiahacks-2017/5f828822-4--4-hotstar_dataset.zip</t>
+  </si>
+  <si>
+    <t>rc2388@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Acute Ischemic Stroke Prediction (Brain Stroke prediction)</t>
+  </si>
+  <si>
+    <t>Building a model to predict if a patient, based on certain characteristics, are prone to acute ischemic stroke, and predicting it's severity and deficits</t>
+  </si>
+  <si>
+    <t>Ritvik Chebolu (rc2388@rit.edu)
+Alekya Yakama (ay2423@rit.edu)
+SaiTulasi Kamma (sk5656@rit.edu)
+Ganesh Sandeep Kanumilli (gk5951@rit.edu)
+Murali Krishna Muthukuru (mm6589@rit.edu)</t>
+  </si>
+  <si>
+    <t>Alekya Yakama- Team Lead: fosters inclusive participation, sets agendas for the entire project
+Ritvik Chebolu- Researcher: gather the raw material, the sources and related technologies to the project
+Sandeep Kanumilli- Technologist: Learns any new technologies required, assists other members using the technology
+Tulasi Kamma- Innovator: Seeks new areas of inquiry, alternative perspectives and ideas
+Murali Krishna Muthukuru- Analyst: focuses on analysis of results and methodology's effectiveness</t>
+  </si>
+  <si>
+    <t>ak3328@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Predict how quirky is a given movie</t>
+  </si>
+  <si>
+    <t>Using the tag genome dataset, predict how quirky the is a movie.
+The tag genome is a data structure contains information about how strongly a movie is associated to the tags like (atmospheric, thought-provoking, realistic, etc.). The tag genome was computed using a machine learning algorithm on user-contributed content including tags, ratings, and textual reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Praveen Chandrasekaran, pc2846@rit.edu
+2. Vigneshwaran Ravichandran, vr9965@rit.edu
+3. Niranjana Sathish Avilery, na6322@rit.edu
+4. Ashini Anantharaman , aa9162@rit.edu
+5. Amit Dilip Kini, ak3328@rit.edu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBD
+</t>
+  </si>
+  <si>
+    <t>https://grouplens.org/datasets/movielens/tag-genome/</t>
+  </si>
+  <si>
+    <t>av8920@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Not Decided</t>
+  </si>
+  <si>
+    <t>Aman Vohra, av8920@g.rit.edu</t>
+  </si>
+  <si>
+    <t>I will be doing the whole project by myself.</t>
+  </si>
+  <si>
+    <t>Will be Provided by instructor.</t>
+  </si>
+  <si>
+    <t>Team #</t>
+  </si>
+  <si>
+    <t>Check-In with TA</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>11/02, 11/09, 11/16, 11/23</t>
+  </si>
+  <si>
+    <t>This project aims at predicting the DDOS attack using various machine learning algorithms on the Dataset mentioned below.</t>
+  </si>
+  <si>
+    <t>Identifying Customer demographics is an important task in the advertising domain since advertising agencies look at customers having similar demographic attributes and try to show them similar content. But, in order to do this, polling every customer and ask them for their review and feedback can hamper the user experience. Hence, we look at other ways like looking at the user behavior and past activities and try to deduce a pattern in the user behavior.
+The dataset to be used for the project contains geotagged user watch time data from Disney+ Hotstar (an Indian streaming platform). The task is to build a machine learning model that can learn the watch patterns of the customers and best capture their behavior..</t>
+  </si>
+  <si>
+    <t>11/04,11/11,11/18,11/30</t>
+  </si>
+  <si>
+    <t>Our dataset needs authorization from a hospital and we are currently in the process of getting it done from a doctor in India. We shall update you once we are ready with the it, but we have the data in hand, but in a pdf file.</t>
+  </si>
+  <si>
+    <t>nk1976@g.rit.edu</t>
+  </si>
+  <si>
+    <t>Adaptive Human Robot Teaming</t>
+  </si>
+  <si>
+    <t>Predicting muscle fatigue using human motion capture</t>
+  </si>
+  <si>
+    <t>Paharishta - pk2971@rit.edu
+Nisarga - nk1976@rit.edu</t>
+  </si>
+  <si>
+    <t>As we only have 2 members, We have decided to divide post EDA processes individually and improve on the results together.</t>
+  </si>
+  <si>
+    <t>Provided by AHRT Lab</t>
+  </si>
+  <si>
+    <t>#Members</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -41,16 +220,343 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -58,15 +564,273 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,13 +1141,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5B41BA-601B-6F4E-8A4D-E3493F013BB6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50" style="1" customWidth="1"/>
+    <col min="10" max="10" width="61.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="69.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44495.629131944443</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>44495.649861111109</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="187" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44495.720752314817</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44496.078611111108</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="119" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44496.866215277776</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44497.33935185185</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44497.77447916667</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="K7" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">Team #</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t xml:space="preserve">Our dataset needs authorization from a hospital and we are currently in the process of getting it done from a doctor in India. We shall update you once we are ready with the it, but we have the data in hand, but in a pdf file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team has data from 200 patients, received from a doctor in India. Once the team gets approval to use the dataset, they will remove personal identifiers from this dataset. They also plan on generating synthetic dataset to add the dataset, since the current dataset does not contain any stats on healthy patients. The team will then normalize the dataset too.</t>
   </si>
   <si>
     <t xml:space="preserve">ak3328@g.rit.edu</t>
@@ -186,6 +189,9 @@
     <t xml:space="preserve">https://grouplens.org/datasets/movielens/tag-genome/</t>
   </si>
   <si>
+    <t xml:space="preserve">The team has the MovieLens dataset in the form of 3 large “.dat” files, which they have merged into a single “.csv” file. The team has almost finished pre-processing the data and is currently performing EDA. As the EDA phase progresses, the final research question asked in this project might change as the team discovers new findings.</t>
+  </si>
+  <si>
     <t xml:space="preserve">av8920@g.rit.edu</t>
   </si>
   <si>
@@ -218,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Provided by AHRT Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current dataset received by the team is inadequate for a ML project. So, the team is actively seeking a new dataset.</t>
   </si>
 </sst>
 </file>
@@ -468,14 +477,14 @@
   </sheetPr>
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.67"/>
@@ -485,7 +494,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="61.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="69.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.83"/>
   </cols>
   <sheetData>
@@ -629,7 +638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="7" t="n">
         <v>4</v>
       </c>
@@ -660,8 +669,11 @@
       <c r="K6" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="n">
         <v>5</v>
       </c>
@@ -672,25 +684,28 @@
         <v>44496.8662152778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,28 +719,28 @@
         <v>44497.3393518518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="n">
         <v>7</v>
       </c>
@@ -736,25 +751,28 @@
         <v>44497.7744791667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t xml:space="preserve">Team #</t>
   </si>
@@ -55,6 +55,9 @@
     <t xml:space="preserve">Week 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Week 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/02, 11/09, 11/16, 11/23</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">The team is using very old data. And, they have found a few issues with this dataset. There is a class imbalance problem because 80% of the data is just about attacks. They are adding 14 new target labels to the testing dataset and planning to drop incorrect labels in the training dataset. They are working on pre-processing the data further.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team is using 10% of the data to be able to fit their model on their local machine. They have added synthetic data that represents non-DDOS attacks, because the original dataset is highly imbalanced. They are now starting to use use ML models like unsupervised clustering classification models.</t>
   </si>
   <si>
     <t xml:space="preserve">ln8378@g.rit.edu</t>
@@ -106,6 +112,9 @@
     <t xml:space="preserve">The team has scraped the data from a public government website using Selenium. They have performed some pre-processing on the data, including fixing an issue where states with two words in their names were showing up as separate entries. They now have a dataset with many features. So, they are performing EDA and exploring ways to convert these large number of columns into a feature space that can be fed into a model.</t>
   </si>
   <si>
+    <t xml:space="preserve">The team has started with the EDA phase. They are working on finding congressman that have voted against their party for each bill right now. A few issues with visualization were discussed and the team will try out some suggested solutions. The team is manually reviewing the data as well to find bills that represent high polarity, in order to perform a deeper analysis on such bills. The are looking to gain insights from such bills to see how the congressman vote on particular issues.</t>
+  </si>
+  <si>
     <t xml:space="preserve">pn1922@g.rit.edu</t>
   </si>
   <si>
@@ -123,13 +132,16 @@
   </si>
   <si>
     <t xml:space="preserve">We plan to divide every task like data cleaning, EDA, feature engineering, model training and testing equally among the four of us.
-Since the training data contains 200,000 rows, one person handling a single task in one computer can be challenging in terms of computation. Hence, we plan to split every task equally amongst us</t>
+Since the training data contains 200,000 rows, one person handling a single task in one computer can be challenging in terms of computation. Hence, we plan to split every task equally among us</t>
   </si>
   <si>
     <t xml:space="preserve">https://he-s3.s3.amazonaws.com/media/hackathon/machine-learning-indiahacks-2017/5f828822-4--4-hotstar_dataset.zip</t>
   </si>
   <si>
     <t xml:space="preserve">The team has separate per-city and per-time-of-day watch times, which they have pre-processed into separate columns. Instead of pre-processing in memory, they have applied pre-processing in batches on the data. They are now performing EDA on the separate pieces of the dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the dataset, some genres and cities have more NaNs than others. So, the features with low number of NaNs will be handled separately from the features with higher number of NaNs. They performed clustering with the features that they had and could not find meaningful insights due to the large number of features. So, the team will perform dimensionality reduction and pick the top dimensions based on their representation of variance in the data, in order to assist the underlying clustering algorithm. The team is thinking of running two models: One that takes just the "watch time" to predict the "time" when the customer will log in again, and the second one where clustering is used to find genres to suggest based on similar genres in the cities of the customers.</t>
   </si>
   <si>
     <t xml:space="preserve">11/04,11/11,11/18,11/30</t>
@@ -475,10 +487,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:L9"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,10 +507,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="61.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="69.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,6 +544,9 @@
       </c>
       <c r="L2" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -538,34 +554,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>44495.6291319444</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -573,69 +592,75 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>44495.6498611111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="141" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="252.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>44495.7207523148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,34 +668,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>44496.0786111111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,34 +703,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>44496.8662152778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,31 +738,31 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>44497.3393518518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,34 +770,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>44497.7744791667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve">Team #</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">Week 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Week 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/02, 11/09, 11/16, 11/23</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
   </si>
   <si>
     <t xml:space="preserve">The team is using 10% of the data to be able to fit their model on their local machine. They have added synthetic data that represents non-DDOS attacks, because the original dataset is highly imbalanced. They are now starting to use use ML models like unsupervised clustering classification models.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team is using 10% over their dataset for now. They are using oversampling technique to handle the class imbalance issue. They have used one-hot encoder for categorical data. They have tried Decision Tree and Naive Bayes until now. They are working on more models. Since there is high correlation between some columns, the team is planning to test dimensionality reduction.</t>
   </si>
   <si>
     <t xml:space="preserve">ln8378@g.rit.edu</t>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">The team has started with the EDA phase. They are working on finding congressman that have voted against their party for each bill right now. A few issues with visualization were discussed and the team will try out some suggested solutions. The team is manually reviewing the data as well to find bills that represent high polarity, in order to perform a deeper analysis on such bills. The are looking to gain insights from such bills to see how the congressman vote on particular issues.</t>
   </si>
   <si>
+    <t xml:space="preserve">The team has performed some more EDA to try to separate the distribution of votes per party.</t>
+  </si>
+  <si>
     <t xml:space="preserve">pn1922@g.rit.edu</t>
   </si>
   <si>
@@ -142,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">In the dataset, some genres and cities have more NaNs than others. So, the features with low number of NaNs will be handled separately from the features with higher number of NaNs. They performed clustering with the features that they had and could not find meaningful insights due to the large number of features. So, the team will perform dimensionality reduction and pick the top dimensions based on their representation of variance in the data, in order to assist the underlying clustering algorithm. The team is thinking of running two models: One that takes just the "watch time" to predict the "time" when the customer will log in again, and the second one where clustering is used to find genres to suggest based on similar genres in the cities of the customers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After separating the “dow”, “cities”, and “genres” columns, the team got a very large number of features. The team realized that the total time is the same for “dow”, “cities”, and “genres”. So, the team decided to go only with the “dow” column. They have used Logistic Regression but it doesn't perform well. So, they are trying out different feature engineering techniques now.</t>
   </si>
   <si>
     <t xml:space="preserve">11/04,11/11,11/18,11/30</t>
@@ -239,6 +251,9 @@
   </si>
   <si>
     <t xml:space="preserve">The current dataset received by the team is inadequate for a ML project. So, the team is actively seeking a new dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since the previous dataset didn’t have enough information to be used in a Data Science project, the team has obtained a new dataset about NYC AirBnB prices. They are currently preprocessing the dataset and will move on to EDA after this part.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,8 +522,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="61.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="69.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="10.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,43 +564,49 @@
       <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>44495.6291319444</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -592,37 +614,40 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>44495.6498611111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="252.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,37 +655,40 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>44495.7207523148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,34 +696,34 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>44496.0786111111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,34 +731,34 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>44496.8662152778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,66 +766,69 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>44497.3393518518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>44497.7744791667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t xml:space="preserve">Team #</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">The team has data from 200 patients, received from a doctor in India. Once the team gets approval to use the dataset, they will remove personal identifiers from this dataset. They also plan on generating synthetic dataset to add the dataset, since the current dataset does not contain any stats on healthy patients. The team will then normalize the dataset too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team has investigated various datasets and methods currently used in research. The team has permission to use these datasets for research. So, they are currently working on exploratory data analysis on these datasets to decide which one to use.</t>
   </si>
   <si>
     <t xml:space="preserve">ak3328@g.rit.edu</t>
@@ -216,6 +219,9 @@
     <t xml:space="preserve">The team has the MovieLens dataset in the form of 3 large “.dat” files, which they have merged into a single “.csv” file. The team has almost finished pre-processing the data and is currently performing EDA. As the EDA phase progresses, the final research question asked in this project might change as the team discovers new findings.</t>
   </si>
   <si>
+    <t xml:space="preserve">Data analysis has been completed. The team is working on the KNN model. They are also checking to see if they can use any other clustering technique or augment their dataset using summaries of movie from a different data source.</t>
+  </si>
+  <si>
     <t xml:space="preserve">av8920@g.rit.edu</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
   </si>
   <si>
     <t xml:space="preserve">Will be Provided by instructor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data pre-processing has been started. Random Forest and Stacked Classifier model is being planned.</t>
   </si>
   <si>
     <t xml:space="preserve">nk1976@g.rit.edu</t>
@@ -254,6 +263,9 @@
   </si>
   <si>
     <t xml:space="preserve">Since the previous dataset didn’t have enough information to be used in a Data Science project, the team has obtained a new dataset about NYC AirBnB prices. They are currently preprocessing the dataset and will move on to EDA after this part.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data pre-processing has been completed. The team is currently in the exploratory data analysis and feature engineering phase.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +516,8 @@
   </sheetPr>
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N4" activeCellId="0" sqref="N4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,6 +737,9 @@
       <c r="L6" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="7" t="n">
@@ -737,31 +752,34 @@
         <v>44496.8662152778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="n">
         <v>6</v>
       </c>
@@ -772,25 +790,28 @@
         <v>44497.3393518518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,31 +825,34 @@
         <v>44497.7744791667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Syllabus/ProjectFiles/Teams.xlsx
+++ b/Syllabus/ProjectFiles/Teams.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t xml:space="preserve">Team #</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Week 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Week 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">11/02, 11/09, 11/16, 11/23</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">The team is using 10% over their dataset for now. They are using oversampling technique to handle the class imbalance issue. They have used one-hot encoder for categorical data. They have tried Decision Tree and Naive Bayes until now. They are working on more models. Since there is high correlation between some columns, the team is planning to test dimensionality reduction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team has tested over-sampling and under-sampling and they are getting a very high F1 score and accuracy. So, it's possible that the model is over-fitting. They are investigating to see what could be the problem here.</t>
   </si>
   <si>
     <t xml:space="preserve">ln8378@g.rit.edu</t>
@@ -124,6 +130,9 @@
     <t xml:space="preserve">The team has performed some more EDA to try to separate the distribution of votes per party.</t>
   </si>
   <si>
+    <t xml:space="preserve">The team is working on using cosine similarity and Jaccard similarity coefficient to find politicians with similar voting patterns.</t>
+  </si>
+  <si>
     <t xml:space="preserve">pn1922@g.rit.edu</t>
   </si>
   <si>
@@ -154,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">After separating the “dow”, “cities”, and “genres” columns, the team got a very large number of features. The team realized that the total time is the same for “dow”, “cities”, and “genres”. So, the team decided to go only with the “dow” column. They have used Logistic Regression but it doesn't perform well. So, they are trying out different feature engineering techniques now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team has tried various models and getting very low scores ROC-AUC scores. So, they are performing more feature engineering to get better results from the dataset.</t>
   </si>
   <si>
     <t xml:space="preserve">11/04,11/11,11/18,11/30</t>
@@ -222,6 +234,9 @@
     <t xml:space="preserve">Data analysis has been completed. The team is working on the KNN model. They are also checking to see if they can use any other clustering technique or augment their dataset using summaries of movie from a different data source.</t>
   </si>
   <si>
+    <t xml:space="preserve">The team has used cosine similarity on TF-IDF vectors to find similar movies for their recommendation system. The next step will be collaborative filtering in their project. The team is brainstorming ways to validate the goodness of fit for these recommendations.</t>
+  </si>
+  <si>
     <t xml:space="preserve">av8920@g.rit.edu</t>
   </si>
   <si>
@@ -266,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">Data pre-processing has been completed. The team is currently in the exploratory data analysis and feature engineering phase.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The team has been working through outliers in their dataset. They are now working on their ML models.</t>
   </si>
 </sst>
 </file>
@@ -514,10 +532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,7 +554,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="32.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="32.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="32.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="1" width="10.83"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,46 +598,52 @@
       <c r="N2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="O2" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="135.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>44495.6291319444</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="144" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -626,40 +651,43 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="n">
         <v>44495.6498611111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="252.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -667,40 +695,43 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="8" t="n">
         <v>44495.7207523148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,37 +739,37 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8" t="n">
         <v>44496.0786111111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,37 +777,40 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7" s="8" t="n">
         <v>44496.8662152778</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,34 +818,34 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8" t="n">
         <v>44497.3393518518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,40 +853,43 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="n">
         <v>44497.7744791667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H9" s="7" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
